--- a/biology/Zoologie/Hylochoerus_meinertzhageni/Hylochoerus_meinertzhageni.xlsx
+++ b/biology/Zoologie/Hylochoerus_meinertzhageni/Hylochoerus_meinertzhageni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylochoerus · Hylochère
 Hylochoerus meinertzhageni, l'Hylochère, unique représentant du genre Hylochoerus, est une espèce de mammifères de la sous-famille des Suinae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hylochoerus et l'espèce Hylochoerus meinertzhageni ont été décrits en 1904 par le mammalogiste britannique Oldfield Thomas (1858-1929)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hylochoerus et l'espèce Hylochoerus meinertzhageni ont été décrits en 1904 par le mammalogiste britannique Oldfield Thomas (1858-1929),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (30 novembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (30 novembre 2022) :
 sous-espèce Hylochoerus meinertzhageni ivoriensis Bouet &amp; Neuville, 1930
 sous-espèce Hylochoerus meinertzhageni meinertzhageni Thomas, 1904
 sous-espèce Hylochoerus meinertzhageni rimator Thomas, 1906</t>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Longueur du corps : 130-210 cm
 Hauteur au garrot : 75-110 cm
@@ -609,7 +627,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Durée de gestation : 149-154 jours
 Taille de la portée : 2-6, rarement jusqu’à 11
@@ -645,7 +665,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hylochère est une créature craintive et peu facile à observer. Les données sur son comportement en milieu sauvage restent rares. On note toutefois qu'ils sont de mœurs nocturnes et vivent en groupe de six à quatorze individus sous la dominance d'un mâle. Les jeunes mâles forment des groupes satellites de célibataires. Ces animaux peuvent parcourir un territoire de 8 à 12 km par jour.
 </t>
@@ -676,7 +698,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">De la Guinée au Ghana ; de l'est du Nigeria jusqu'au Kenya et au nord de la Tanzanie ; sud-ouest de l'Éthiopie.
 </t>
@@ -707,7 +731,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hylochère doit faire face à une chasse importante et à une réduction continue de son habitat. Cependant, la taille de la population ne semble pas diminuer. La sous-espèce Hylochoerus meinertzhageni ivoriensis est inscrite par l’UICN comme espèce vulnérable. Au Gabon, l'hylochère est une espèce intégralement protégée (voir article 92 du code forestier du Gabon et annexe 1 du décret 164/PR/MEF du 19 janvier 2011 relatif au classement et aux latitudes d’abattage des espèces animales). 
 </t>
@@ -738,9 +764,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, meinertzhageni, lui a été donnée en l'honneur de l'officier et ornithologue britannique Richard Meinertzhagen (1878-1967) qui avait entendu parler de cette espèce et qui a fini par en obtenir des spécimens provenant du mont Kenya[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, meinertzhageni, lui a été donnée en l'honneur de l'officier et ornithologue britannique Richard Meinertzhagen (1878-1967) qui avait entendu parler de cette espèce et qui a fini par en obtenir des spécimens provenant du mont Kenya.
 </t>
         </is>
       </c>
@@ -769,7 +797,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) Oldfield Thomas, « On Hylochœrus, the Forest-Pig of Central Africa », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 1904, no 2,‎ 13 octobre 1904, p. 193-199 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, lire en ligne)</t>
         </is>
